--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3606825.584321469</v>
+        <v>3602493.099500778</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.63830379</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283157</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7948922.323923935</v>
+        <v>7948922.323923934</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>275.2288696932967</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>299.4031523088997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>16.41010763696638</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>173.3244323150252</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,19 +1065,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>85.92645860395726</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>46.76519578429527</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>78.1413629246951</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>126.3298627762798</v>
+        <v>223.1498336210775</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518786</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W13" t="n">
-        <v>239.4805621695834</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.950415645343</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462241</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856585</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634801</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.272891771007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722613</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701344</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174125</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819368</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986273</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229307</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922683</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462234</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856516</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101214</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016442</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272878</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892436</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>2.607010073156857</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986273</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182118</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465686</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229307</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922683</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462233</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856499</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012115</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016441</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272877</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>173.5740289795632</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819368</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986273</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182118</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229307</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922683</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462233</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856499</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>32.27552175741242</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892436</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182117</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465685</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922682</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856485</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.375246710121</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016439</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>103.9877674501729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238273</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520941</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182117</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229306</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922682</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462232</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856485</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.375246710121</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272876</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238273</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>214.8498032385346</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520941</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>202.7020590629031</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>43.98166197004305</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>172.8704187577631</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>106.8299898147636</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C2" t="n">
-        <v>903.3817252132462</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="D2" t="n">
-        <v>903.3817252132462</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="E2" t="n">
-        <v>903.3817252132462</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>509.836384399921</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2449.36704756292</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2449.36704756292</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="X5" t="n">
-        <v>2522.073906861631</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>334.3070024658831</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>186.39390888349</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>186.39390888349</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>186.39390888349</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>597.240379576299</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.911519518935</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2649.911519518935</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V8" t="n">
-        <v>2387.012244241982</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W8" t="n">
-        <v>2387.012244241982</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.546485980902</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.546485980902</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5026,64 +5026,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468474</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718711</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998423</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998423</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078147</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799077</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675719</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851786</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851786</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396416</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.847511649363</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.857960751345</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.0653816078147</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,43 +5342,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637291</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890279</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998428</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237714</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732781</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784074</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780505003</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381644</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578607</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000586</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797721</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580254</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235158</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258099</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258099</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052212</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015251</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117234</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192525</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075773</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332381</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.26572885225</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398587</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492572</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474777</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466568</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612122998</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797174</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191913</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191913</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187045</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.88875337331</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612595</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687949</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429788</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578592</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000578</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
         <v>1977.461080510508</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1431.068022140581</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.078471242564</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990341</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263523</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356162</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>779.614337923281</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408885</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429787</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578591</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000577</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782962</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038353</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487573</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510514</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510514</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304628</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.449290305069</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407052</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263523</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,7 +5995,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.62413549946</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571554</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661309</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4658.231615269894</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4658.231615269894</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4369.156388614092</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4114.471900408205</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3825.054730371246</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3597.065179473229</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.272600329699</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6305,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3053.935450426139</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2884.999267498233</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2734.882628085898</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2586.969534503505</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503505</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218386</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218386</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.6867318663</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296624</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822163</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998104</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305902</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4335.894465366333</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>4046.819238710531</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3792.134750504645</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3502.717580467685</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3274.728029569669</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3053.935450426139</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811291</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532229</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408878</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408878</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429782</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578588</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000576</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038356</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797763</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832668</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832668</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.31591485561</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199809</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993922</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1399.536196722675</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1171.546645824659</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.7540666811291</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3028.451182298828</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2859.514999370921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2709.398359958586</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>2561.485266376193</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3727.506368064046</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3438.089198027085</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3210.099647129068</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3210.099647129068</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,13 +6922,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4396.506693124038</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4107.431466468236</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3852.746978262349</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3563.329808225389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7253,25 +7253,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>969.6676110080573</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3482.038612289356</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4515.878368030022</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4296.276903052963</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4296.276903052963</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>4041.592414847077</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3752.175244810116</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3524.185693912098</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.70530256582424e-11</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012177</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W13" t="n">
-        <v>47.04243616700776</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.88156453659444</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012208</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.9159882634336</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819368</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892436</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>112.9489693570273</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012115</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>148.7507642442316</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272877</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819366</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229306</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462232</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>113.4176828771147</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819366</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465685</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016439</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>71.67319509805569</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>49.43558426092486</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>173.4237883572452</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.71423459433169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>74.196296186881</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670165.5524993418</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670165.5524993417</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670165.5524993418</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670165.5524993418</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132559</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577094</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.388681876390668e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.781095960547614e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.437422608636552e-09</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670303</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670629</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670947</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670612</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670613</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670658</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670658</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>475540.0531333213</v>
       </c>
       <c r="D6" t="n">
-        <v>475540.0531333213</v>
+        <v>475540.0531333212</v>
       </c>
       <c r="E6" t="n">
-        <v>-303952.2954700312</v>
+        <v>-304299.674724388</v>
       </c>
       <c r="F6" t="n">
-        <v>640420.4822876812</v>
+        <v>640073.103033321</v>
       </c>
       <c r="G6" t="n">
-        <v>640420.4822876771</v>
+        <v>640073.1030333209</v>
       </c>
       <c r="H6" t="n">
-        <v>640420.4822876751</v>
+        <v>640073.103033321</v>
       </c>
       <c r="I6" t="n">
-        <v>640420.4822876772</v>
+        <v>640073.1030333212</v>
       </c>
       <c r="J6" t="n">
-        <v>463997.2630950845</v>
+        <v>463649.8838407278</v>
       </c>
       <c r="K6" t="n">
-        <v>640420.4822876778</v>
+        <v>640073.1030333209</v>
       </c>
       <c r="L6" t="n">
-        <v>640420.4822876778</v>
+        <v>640073.103033321</v>
       </c>
       <c r="M6" t="n">
-        <v>516211.9715796192</v>
+        <v>515864.5923252622</v>
       </c>
       <c r="N6" t="n">
-        <v>640420.4822876778</v>
+        <v>640073.1030333209</v>
       </c>
       <c r="O6" t="n">
-        <v>640420.4822876782</v>
+        <v>640073.1030333211</v>
       </c>
       <c r="P6" t="n">
-        <v>640420.4822876778</v>
+        <v>640073.103033321</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26795,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245879</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.188502012308512e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>131.6471760484147</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>114.3810177118953</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.68503059263367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>200.0382127206914</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>196.4066683634438</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>70.24443023783789</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>7.713206790516388</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>249.6108955454398</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>160.1931355603112</v>
+        <v>63.37316471551347</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.41675386608405e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.305385760342081e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.704608378454278e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>272.7569329364637</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862103</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6713445158072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418556</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422575</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>632.5879274568802</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418556</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>424.0909547148531</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33280,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,22 +33496,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33520,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33973,10 +33973,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>223.6976288294628</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>414.644818552487</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>506.5665344352332</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>134.2025531565896</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35588,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924885</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764192</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N15" t="n">
-        <v>122.3296324324739</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789168</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295282</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096341</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191304</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010441</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899064</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066242</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998977</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678985</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>490.4538935348619</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789168</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191311</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010447</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899071</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060451</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295388</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.342014319132</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010456</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899079</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060459</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>281.4947102704086</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295388</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.342014319132</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010456</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899079</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060459</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295403</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096356</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066256</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.402257299899</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295403</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096356</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066256</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.402257299899</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37168,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37621,10 +37621,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>81.10138438501835</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>272.5107846304687</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>364.4325005132149</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3602493.099500778</v>
+        <v>3604253.629803563</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>294.7523829379884</v>
       </c>
       <c r="G2" t="n">
-        <v>299.4031523088997</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>16.41010763696638</v>
+        <v>70.88851021177815</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>56.58072854101228</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.46389722690851</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>196.8405671533554</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>46.76519578429527</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210775</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>174.3474135131859</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018862</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.56327578339665</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="C2" t="n">
-        <v>516.7818851491245</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="D2" t="n">
-        <v>516.7818851491245</v>
+        <v>1308.890698260674</v>
       </c>
       <c r="E2" t="n">
-        <v>516.7818851491245</v>
+        <v>923.1024456624298</v>
       </c>
       <c r="F2" t="n">
-        <v>509.836384399921</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="3">
@@ -4573,28 +4573,28 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
         <v>2449.36704756292</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,46 +4649,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521276</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>597.240379576299</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358873</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358873</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2649.911519518935</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2649.911519518935</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2431.276852490997</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2431.276852490997</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.213965147427</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.445309877312</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1373.979551616233</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>983.8402196404209</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5132,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,13 +5360,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,13 +6074,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416598</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6776,16 +6776,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M33" t="n">
         <v>949.9304447718133</v>
@@ -6840,16 +6840,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7499,10 +7499,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>111.8370608760582</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>73.8577722395346</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
@@ -26349,13 +26349,13 @@
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
@@ -26435,10 +26435,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="I4" t="n">
         <v>5067.592601670438</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
@@ -26450,10 +26450,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670489</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670489</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114427.8260812231</v>
+        <v>-114427.826081223</v>
       </c>
       <c r="C6" t="n">
+        <v>475540.0531333212</v>
+      </c>
+      <c r="D6" t="n">
         <v>475540.0531333213</v>
       </c>
-      <c r="D6" t="n">
-        <v>475540.0531333212</v>
-      </c>
       <c r="E6" t="n">
-        <v>-304299.674724388</v>
+        <v>-303987.0333954667</v>
       </c>
       <c r="F6" t="n">
-        <v>640073.103033321</v>
+        <v>640385.7443622423</v>
       </c>
       <c r="G6" t="n">
-        <v>640073.1030333209</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="H6" t="n">
-        <v>640073.103033321</v>
+        <v>640385.7443622425</v>
       </c>
       <c r="I6" t="n">
-        <v>640073.1030333212</v>
+        <v>640385.7443622425</v>
       </c>
       <c r="J6" t="n">
-        <v>463649.8838407278</v>
+        <v>463962.5251696494</v>
       </c>
       <c r="K6" t="n">
-        <v>640073.1030333209</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="L6" t="n">
-        <v>640073.103033321</v>
+        <v>640385.7443622423</v>
       </c>
       <c r="M6" t="n">
-        <v>515864.5923252622</v>
+        <v>516177.2336541834</v>
       </c>
       <c r="N6" t="n">
-        <v>640073.1030333209</v>
+        <v>640385.7443622419</v>
       </c>
       <c r="O6" t="n">
-        <v>640073.1030333211</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="P6" t="n">
-        <v>640073.103033321</v>
+        <v>640385.7443622424</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>112.1236628037231</v>
       </c>
       <c r="G2" t="n">
-        <v>114.3810177118953</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>200.0382127206914</v>
+        <v>145.5598101458796</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.03474447720008</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>168.4323246176522</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>7.713206790516388</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="11">
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9530009943068</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>246.9596973201446</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34941,7 +34941,7 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>35.9785935799765</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>108.4053175402704</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
